--- a/00-Administratif/01-ETIQUETTES + NOMBRE  NOTES SEMESTRIELLES/PELE/ETIQUETTES NUMERIQUES/PELE_NOTES.xlsx
+++ b/00-Administratif/01-ETIQUETTES + NOMBRE  NOTES SEMESTRIELLES/PELE/ETIQUETTES NUMERIQUES/PELE_NOTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29019"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEXTES\EPSIC\ADMIN\ADMIN_DOMAINE_SANDRO\EXCEL_NOTES_DOMAINE_3\SHARE_POINT_ETIQUETTES_NUMERIQUES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zozma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA492E1-0442-411E-9E1B-B8B0352D2510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDF281D-D529-4AC2-88C2-5DF7FE0985F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24446EAE-FF7B-4720-8461-B68F93A38A30}"/>
   </bookViews>
@@ -1104,6 +1104,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{3C2DF01B-3480-4837-A872-0545D5B5FCDD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NIBT</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F11" authorId="0" shapeId="0" xr:uid="{EBBCB178-1723-41CC-880F-39A95294123C}">
       <text>
         <r>
@@ -1132,59 +1146,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{C6755FFA-883B-4AD9-97B9-7A4A6DBFDBF8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{4B8F968D-467E-4174-ABC3-A4BAAA3A9302}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{A8FC442D-976A-4D37-BC63-5D78B132B743}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{76BB8B00-500A-4575-B9F5-8D1D3650337B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Schéma</t>
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{CD28ABEF-970F-42E4-B0A6-F48095589989}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NIBT</t>
         </r>
       </text>
     </comment>
@@ -2033,7 +2005,7 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="91">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2160,6 +2132,41 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDDD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3668,69 +3675,69 @@
     <mergeCell ref="A27:I27"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:C12 F11:H12 A16:C18 F16:H18 A21:C23 F21:H23 A29:C31 F29:H31 A33:C35 F33:H35">
-    <cfRule type="cellIs" dxfId="85" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="44" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13 F13:I13 D18 I18 D23 I23 D25 I25 D31 I31 D35 I35 D37 I37">
-    <cfRule type="cellIs" dxfId="84" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="45" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsBlanks" dxfId="83" priority="40">
+    <cfRule type="containsBlanks" dxfId="88" priority="40">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12 H11:H12 A13:C13 F13:H13 A17:C18 F17:H18 A22:C23 F22:H23 A30:C31 F30:H31 A34:C35 F34:H35">
-    <cfRule type="containsBlanks" dxfId="82" priority="42">
+    <cfRule type="containsBlanks" dxfId="87" priority="42">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsBlanks" dxfId="81" priority="6">
+    <cfRule type="containsBlanks" dxfId="86" priority="6">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="80" priority="7">
+    <cfRule type="containsBlanks" dxfId="85" priority="7">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="79" priority="8">
+    <cfRule type="containsBlanks" dxfId="84" priority="8">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="78" priority="9">
+    <cfRule type="containsBlanks" dxfId="83" priority="9">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G11">
-    <cfRule type="containsBlanks" dxfId="77" priority="36">
+    <cfRule type="containsBlanks" dxfId="82" priority="36">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G12 A16:C16 F16:H16 A11:B12 A21:C21 F21:H21 A29:C29 F29:H29 A33:C33 F33:H33">
-    <cfRule type="containsBlanks" dxfId="76" priority="43">
+    <cfRule type="containsBlanks" dxfId="81" priority="43">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H11">
-    <cfRule type="containsBlanks" dxfId="75" priority="30">
+    <cfRule type="containsBlanks" dxfId="80" priority="30">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsBlanks" dxfId="74" priority="1">
+    <cfRule type="containsBlanks" dxfId="79" priority="1">
       <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsBlanks" dxfId="73" priority="4">
+    <cfRule type="containsBlanks" dxfId="78" priority="4">
       <formula>LEN(TRIM(H16))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="72" priority="5">
+    <cfRule type="containsBlanks" dxfId="77" priority="5">
       <formula>LEN(TRIM(H16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3512">
-    <cfRule type="cellIs" dxfId="71" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="46" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4320,234 +4327,234 @@
     <mergeCell ref="A34:I34"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="containsBlanks" dxfId="70" priority="37">
+    <cfRule type="containsBlanks" dxfId="75" priority="37">
       <formula>LEN(TRIM(A12))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="38" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="containsBlanks" dxfId="68" priority="42">
+    <cfRule type="containsBlanks" dxfId="73" priority="42">
       <formula>LEN(TRIM(A13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B17">
-    <cfRule type="containsBlanks" dxfId="67" priority="33">
+    <cfRule type="containsBlanks" dxfId="72" priority="33">
       <formula>LEN(TRIM(A16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B23">
-    <cfRule type="containsBlanks" dxfId="66" priority="11">
+    <cfRule type="containsBlanks" dxfId="71" priority="11">
       <formula>LEN(TRIM(A22))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="12" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="containsBlanks" dxfId="64" priority="9">
+    <cfRule type="containsBlanks" dxfId="69" priority="9">
       <formula>LEN(TRIM(A23))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="10" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="containsBlanks" dxfId="62" priority="47">
+    <cfRule type="containsBlanks" dxfId="67" priority="47">
       <formula>LEN(TRIM(A27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 F11:H11 F16:H17 A16:C16 A17:B17">
-    <cfRule type="cellIs" dxfId="61" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="45" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 F13:H13">
-    <cfRule type="cellIs" dxfId="60" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="46" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:C22">
-    <cfRule type="containsBlanks" dxfId="59" priority="54">
+    <cfRule type="containsBlanks" dxfId="64" priority="54">
       <formula>LEN(TRIM(A21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:C36 F36:H36 A40:C40 F40:H40">
-    <cfRule type="containsBlanks" dxfId="58" priority="115">
+    <cfRule type="containsBlanks" dxfId="63" priority="115">
       <formula>LEN(TRIM(A36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:C38 F36:H38 A40:C42 F40:H42">
-    <cfRule type="cellIs" dxfId="57" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="116" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:C38 F37:H38 A41:C42 F41:H42">
-    <cfRule type="containsBlanks" dxfId="56" priority="114">
+    <cfRule type="containsBlanks" dxfId="61" priority="114">
       <formula>LEN(TRIM(A37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsBlanks" dxfId="55" priority="32">
+    <cfRule type="containsBlanks" dxfId="60" priority="32">
       <formula>LEN(TRIM(B17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsBlanks" dxfId="54" priority="39">
+    <cfRule type="containsBlanks" dxfId="59" priority="39">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="53" priority="40">
+    <cfRule type="containsBlanks" dxfId="58" priority="40">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="52" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="31" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C13">
-    <cfRule type="containsBlanks" dxfId="51" priority="30">
+    <cfRule type="containsBlanks" dxfId="56" priority="30">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C18 A18:B18 F18:H18">
-    <cfRule type="containsBlanks" dxfId="50" priority="28">
+    <cfRule type="containsBlanks" dxfId="55" priority="28">
       <formula>LEN(TRIM(A16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18 A18:B18 F18:H18">
-    <cfRule type="cellIs" dxfId="49" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="29" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 A28:C29 F28:H29">
-    <cfRule type="containsBlanks" dxfId="48" priority="55">
+    <cfRule type="containsBlanks" dxfId="53" priority="55">
       <formula>LEN(TRIM(A21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="containsBlanks" dxfId="47" priority="23">
+    <cfRule type="containsBlanks" dxfId="52" priority="23">
       <formula>LEN(TRIM(C23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="containsBlanks" dxfId="46" priority="51">
+    <cfRule type="containsBlanks" dxfId="51" priority="51">
       <formula>LEN(TRIM(C27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:D23">
-    <cfRule type="cellIs" dxfId="45" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="24" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 I29">
-    <cfRule type="cellIs" dxfId="44" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="58" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32 I32 D38 I38 D42 I42 D44 I44">
-    <cfRule type="cellIs" dxfId="43" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="117" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="containsBlanks" dxfId="42" priority="27">
+    <cfRule type="containsBlanks" dxfId="47" priority="27">
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:G22">
-    <cfRule type="containsBlanks" dxfId="41" priority="56">
+    <cfRule type="containsBlanks" dxfId="46" priority="56">
       <formula>LEN(TRIM(F21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G22">
-    <cfRule type="containsBlanks" dxfId="40" priority="52">
+    <cfRule type="containsBlanks" dxfId="45" priority="52">
       <formula>LEN(TRIM(F22))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="20" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:G23">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="37" priority="3">
+    <cfRule type="containsBlanks" dxfId="42" priority="3">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="36" priority="1">
+    <cfRule type="containsBlanks" dxfId="41" priority="1">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H11 A11:C11">
-    <cfRule type="containsBlanks" dxfId="34" priority="44">
+    <cfRule type="containsBlanks" dxfId="39" priority="44">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H11">
-    <cfRule type="containsBlanks" dxfId="33" priority="43">
+    <cfRule type="containsBlanks" dxfId="38" priority="43">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H12">
-    <cfRule type="containsBlanks" dxfId="32" priority="35">
+    <cfRule type="containsBlanks" dxfId="37" priority="35">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:H12">
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:H13">
-    <cfRule type="containsBlanks" dxfId="30" priority="41">
+    <cfRule type="containsBlanks" dxfId="35" priority="41">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:H17">
-    <cfRule type="containsBlanks" dxfId="29" priority="34">
+    <cfRule type="containsBlanks" dxfId="34" priority="34">
       <formula>LEN(TRIM(F16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:H22 A21:C22 A27:C29 F27:H29">
-    <cfRule type="cellIs" dxfId="28" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="57" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:H22">
-    <cfRule type="containsBlanks" dxfId="27" priority="53">
+    <cfRule type="containsBlanks" dxfId="32" priority="53">
       <formula>LEN(TRIM(F21))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="13">
+    <cfRule type="containsBlanks" dxfId="31" priority="13">
       <formula>LEN(TRIM(F21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:H27">
-    <cfRule type="containsBlanks" dxfId="25" priority="49">
+    <cfRule type="containsBlanks" dxfId="30" priority="49">
       <formula>LEN(TRIM(F27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsBlanks" dxfId="24" priority="17">
+    <cfRule type="containsBlanks" dxfId="29" priority="17">
       <formula>LEN(TRIM(H23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H28">
-    <cfRule type="containsBlanks" dxfId="23" priority="48">
+    <cfRule type="containsBlanks" dxfId="28" priority="48">
       <formula>LEN(TRIM(H27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3519">
-    <cfRule type="cellIs" dxfId="22" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="118" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:I23">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4571,7 +4578,7 @@
   <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -4669,22 +4676,22 @@
     <row r="11" spans="1:9">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="3"/>
     </row>
@@ -5098,7 +5105,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A7:C7"/>
@@ -5107,35 +5114,60 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:B12 F11:G12 A16:C16 F16:H16 A21:C21 F21:H21 A29:C29 F29:H29 A33:C33 F33:H33">
-    <cfRule type="containsBlanks" dxfId="20" priority="2">
+    <cfRule type="containsBlanks" dxfId="25" priority="7">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C12 F11:H12 A16:C18 F16:H18 A21:C23 F21:H23 A29:C31 F29:H31 A33:C35 F33:H35">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="A16:C18 F16:H18 A21:C23 F21:H23 A29:C31 F29:H31 A33:C35 F33:H35 A11:C12 F11:H12">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13 F13:I13 D18 I18 D23 I23 D25 I25 D31 I31 D35 I35 D37 I37">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12 H11:H12 A13:C13 G13:H13 F13:F14 A17:C18 F17:H18 A22:C23 F22:H23 A30:C31 F30:H31 A34:C35 F34:H35">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
+  <conditionalFormatting sqref="C11:C12 H11:H12 A13:C13 G13:H13 A17:C18 F17:H18 A22:C23 F22:H23 A30:C31 F30:H31 A34:C35 F34:H35 F12:F14">
+    <cfRule type="containsBlanks" dxfId="22" priority="6">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3512">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="lessThan">
       <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsBlanks" dxfId="20" priority="5">
+      <formula>LEN(TRIM(C11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsBlanks" dxfId="19" priority="4">
+      <formula>LEN(TRIM(H11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="containsBlanks" dxfId="18" priority="3">
+      <formula>LEN(TRIM(B12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="containsBlanks" dxfId="17" priority="2">
+      <formula>LEN(TRIM(A12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
+      <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="ERREUR" error="Valeur des notes uniquement entre 1 et 6 par saut de 0.5." sqref="B19:C19 G19:H19 G14:H14 B14:C14" xr:uid="{99150E84-7CD7-4560-8345-405BCB943FB7}">
       <formula1>$Z$50:$Z$59</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="ERREUR" error="Valeur des notes uniquement entre 1 et 6 par saut de 0.5." sqref="A11:C13 F11:H13 A33:C35 F29:H31 A29:C31 F21:H23 A21:C23 F16:H18 A16:C18 F33:H35" xr:uid="{7473B169-7471-4094-ABCF-022BF41344D5}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="ERREUR" error="Valeur des notes uniquement entre 1 et 6 par saut de 0.5." sqref="F33:H35 A11:C13 A33:C35 F29:H31 A29:C31 F21:H23 A21:C23 F16:H18 A16:C18 F11:H13" xr:uid="{7473B169-7471-4094-ABCF-022BF41344D5}">
       <formula1>$Z$50:$Z$60</formula1>
     </dataValidation>
   </dataValidations>
@@ -6053,14 +6085,6 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:C7"/>
@@ -6073,6 +6097,14 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D16">
     <cfRule type="containsBlanks" dxfId="4" priority="4">
@@ -6148,6 +6180,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1">
@@ -6158,18 +6199,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7262808F74C1A479C3BB44A303B6A0F" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="cab4a3c0111c554b2187f2cf1b3f650e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1" xmlns:ns3="28ecda99-baeb-4159-826c-8d3ebe501c98" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e122d3143e7eb9975e5aea102f87885" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7262808F74C1A479C3BB44A303B6A0F" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="53ca5ba934d9ea82b208c5ebaa87ee73">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1" xmlns:ns3="28ecda99-baeb-4159-826c-8d3ebe501c98" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61005504990099e8d9d64d1794496304" ns2:_="" ns3:_="">
     <xsd:import namespace="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1"/>
     <xsd:import namespace="28ecda99-baeb-4159-826c-8d3ebe501c98"/>
     <xsd:element name="properties">
@@ -6191,6 +6223,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6251,6 +6284,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="22" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -6397,13 +6435,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596A9BA6-0C04-40F3-A6C1-47592734148D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57A0D446-CB32-4EAB-9869-4005CB819351}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6449AA6-1FDA-4318-B70C-94A8FB99F85A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ECF98B2-C52E-4BB0-82DD-C3B764D6014B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F096DC-BDFB-4F8F-AB52-07C39A32BBA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA89C8BD-CF36-4B86-9820-D0A813CF5919}"/>
 </file>